--- a/2019ACS_DemographicHousingEstimates_WorkingCopy.xlsx
+++ b/2019ACS_DemographicHousingEstimates_WorkingCopy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://floridahealth-my.sharepoint.com/personal/michelle_slawinski_flhealth_gov/Documents/Documents/Projects/Resource Map/Data/Demographic &amp; Housing Estimates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://floridahealth-my.sharepoint.com/personal/michelle_slawinski_flhealth_gov/Documents/Documents/GitHub/Census/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="8_{6EF9E7D6-0E32-4527-82C6-5D74BBD9F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17FBC63E-EBB3-4654-99BA-C61694958510}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="8_{6EF9E7D6-0E32-4527-82C6-5D74BBD9F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ED64771-055C-4156-929A-215C40B482F3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F5BEBB51-587C-4DC1-8147-8A3F0C77C96A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F5BEBB51-587C-4DC1-8147-8A3F0C77C96A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Discard" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$C$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dictionary!$A$1:$C$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3350,17 +3350,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E68C49-8AE4-40E1-B1F5-2DFF9F435EA4}">
   <dimension ref="A1:MT57"/>
   <sheetViews>
-    <sheetView topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="CC3" activeCellId="2" sqref="CE3 CC2 CC3"/>
+    <sheetView topLeftCell="LS1" workbookViewId="0">
+      <selection activeCell="MH21" sqref="MH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="70" max="70" width="63.28515625" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="46.140625" customWidth="1"/>
     <col min="82" max="82" width="19.140625" customWidth="1"/>
     <col min="83" max="83" width="21.140625" customWidth="1"/>
     <col min="84" max="84" width="18.85546875" customWidth="1"/>
     <col min="97" max="97" width="26.28515625" customWidth="1"/>
+    <col min="356" max="356" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:358" x14ac:dyDescent="0.25">
@@ -64702,10 +64704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E594E6-292A-489C-8899-DB3004E2AD40}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66434,107 +66436,89 @@
         <v>961</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C157" t="s">
-        <v>964</v>
+        <v>686</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>356</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>357</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="C165" s="4" t="s">
         <v>972</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C165" xr:uid="{63E594E6-292A-489C-8899-DB3004E2AD40}"/>
+  <autoFilter ref="A1:C163" xr:uid="{63E594E6-292A-489C-8899-DB3004E2AD40}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C163">
+      <sortCondition ref="A1:A163"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -66542,10 +66526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD051FDE-368E-43E7-93C7-ED9FE59F8A2D}">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68214,6 +68198,28 @@
         <v>976</v>
       </c>
     </row>
+    <row r="196" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
